--- a/项目进度/环渤海项目安排进度.xlsx
+++ b/项目进度/环渤海项目安排进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Google Application Development</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,42 @@
         <charset val="134"/>
       </rPr>
       <t>完善用户管理模块，加相关前台验证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zh.C2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息管理模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zh.Y2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营业员管理模块</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,6 +807,102 @@
         <a:xfrm>
           <a:off x="2933700" y="1352550"/>
           <a:ext cx="457200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>220663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="2124075"/>
+          <a:ext cx="847725" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:headEnd type="none" w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="1724025"/>
+          <a:ext cx="904875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1347,7 +1479,7 @@
   <dimension ref="B2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1469,9 +1601,13 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="12"/>
+    <row r="7" spans="2:24" s="17" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1494,9 +1630,13 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="12"/>
+    <row r="8" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
